--- a/Data1.xlsx
+++ b/Data1.xlsx
@@ -1271,12 +1271,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -1389,12 +1389,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -1926,12 +1926,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -2044,12 +2044,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -2219,12 +2219,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -2276,12 +2276,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -2390,12 +2390,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2504,12 +2504,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -2618,12 +2618,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -2675,12 +2675,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K38" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K39" t="n">
@@ -2789,12 +2789,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K40" t="n">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -2964,12 +2964,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -3021,12 +3021,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -3139,12 +3139,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -3318,12 +3318,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -3375,12 +3375,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -3432,12 +3432,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K51" t="n">
@@ -3489,12 +3489,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -3550,12 +3550,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K53" t="n">
@@ -3607,12 +3607,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K54" t="n">
@@ -3664,12 +3664,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K55" t="n">
@@ -3721,12 +3721,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K56" t="n">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -3839,12 +3839,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K58" t="n">
@@ -3896,12 +3896,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K59" t="n">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K60" t="n">
@@ -4010,12 +4010,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K61" t="n">
@@ -4067,12 +4067,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -4124,12 +4124,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K63" t="n">
@@ -4181,12 +4181,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K64" t="n">
@@ -4242,12 +4242,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K65" t="n">
@@ -4299,12 +4299,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K66" t="n">
@@ -4356,12 +4356,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K67" t="n">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K68" t="n">
@@ -4470,12 +4470,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K69" t="n">
@@ -4527,12 +4527,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K70" t="n">
@@ -4588,12 +4588,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K71" t="n">
@@ -4645,12 +4645,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -4702,12 +4702,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K73" t="n">
@@ -4759,12 +4759,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K74" t="n">
@@ -4816,12 +4816,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K75" t="n">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K76" t="n">
@@ -4991,12 +4991,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K78" t="n">
@@ -5048,12 +5048,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K79" t="n">
@@ -5105,12 +5105,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K80" t="n">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K82" t="n">
@@ -5284,12 +5284,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K83" t="n">
@@ -5345,12 +5345,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K84" t="n">
@@ -5402,12 +5402,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K85" t="n">
@@ -5463,12 +5463,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K86" t="n">
@@ -5520,12 +5520,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K87" t="n">
@@ -5577,12 +5577,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K88" t="n">
@@ -5638,12 +5638,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K89" t="n">
@@ -5695,12 +5695,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K90" t="n">
@@ -5752,12 +5752,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K91" t="n">
@@ -5809,12 +5809,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K92" t="n">
@@ -5927,12 +5927,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K94" t="n">
@@ -5984,12 +5984,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K95" t="n">
@@ -6041,12 +6041,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K96" t="n">
@@ -6098,12 +6098,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K97" t="n">
@@ -6155,12 +6155,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K98" t="n">
@@ -6212,12 +6212,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K99" t="n">
@@ -6269,12 +6269,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K100" t="n">
@@ -6326,12 +6326,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K101" t="n">
@@ -6383,12 +6383,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K102" t="n">
@@ -6440,12 +6440,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K103" t="n">
@@ -6497,12 +6497,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K104" t="n">
@@ -6554,12 +6554,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K105" t="n">
@@ -6611,12 +6611,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K106" t="n">
@@ -6672,12 +6672,12 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K107" t="n">
@@ -6729,12 +6729,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K108" t="n">
@@ -6786,12 +6786,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K109" t="n">
@@ -6847,12 +6847,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K110" t="n">
@@ -6908,12 +6908,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K111" t="n">
@@ -6965,12 +6965,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K112" t="n">
@@ -7022,12 +7022,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K113" t="n">
@@ -7079,12 +7079,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K114" t="n">
@@ -7140,12 +7140,12 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K115" t="n">
@@ -7258,12 +7258,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K117" t="n">
@@ -7315,12 +7315,12 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K118" t="n">
@@ -7372,12 +7372,12 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K119" t="n">
@@ -7433,12 +7433,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K120" t="n">
@@ -7490,12 +7490,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K121" t="n">
@@ -7608,12 +7608,12 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K123" t="n">
@@ -7665,12 +7665,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K124" t="n">
@@ -7722,12 +7722,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K125" t="n">
@@ -7779,12 +7779,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K126" t="n">
@@ -7840,12 +7840,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K127" t="n">
@@ -7901,12 +7901,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K128" t="n">
@@ -7958,12 +7958,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K129" t="n">
@@ -8015,12 +8015,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K130" t="n">
@@ -8072,12 +8072,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K131" t="n">
@@ -8129,12 +8129,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K132" t="n">
@@ -8190,12 +8190,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K133" t="n">
@@ -8247,12 +8247,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K134" t="n">
@@ -8304,12 +8304,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K135" t="n">
@@ -8365,12 +8365,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K136" t="n">
@@ -8422,12 +8422,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K137" t="n">
@@ -8479,12 +8479,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K138" t="n">
@@ -8540,12 +8540,12 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K139" t="n">
@@ -8601,12 +8601,12 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K140" t="n">
@@ -8658,12 +8658,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K141" t="n">
@@ -8715,12 +8715,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K142" t="n">
@@ -8772,12 +8772,12 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K143" t="n">
@@ -8829,12 +8829,12 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K144" t="n">
@@ -8886,12 +8886,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K145" t="n">
@@ -8947,12 +8947,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K146" t="n">
@@ -9004,12 +9004,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K147" t="n">
@@ -9065,12 +9065,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K148" t="n">
